--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.7677283333333</v>
+        <v>97.95083099999999</v>
       </c>
       <c r="H2">
-        <v>425.303185</v>
+        <v>293.852493</v>
       </c>
       <c r="I2">
-        <v>0.8852651338396584</v>
+        <v>0.8624879970338062</v>
       </c>
       <c r="J2">
-        <v>0.8852651338396584</v>
+        <v>0.8624879970338061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.529371</v>
+        <v>31.775879</v>
       </c>
       <c r="N2">
-        <v>82.58811300000001</v>
+        <v>95.32763700000001</v>
       </c>
       <c r="O2">
-        <v>0.9749840804446944</v>
+        <v>0.9255914574558523</v>
       </c>
       <c r="P2">
-        <v>0.9749840804446945</v>
+        <v>0.9255914574558521</v>
       </c>
       <c r="Q2">
-        <v>3902.776389115545</v>
+        <v>3112.473753805449</v>
       </c>
       <c r="R2">
-        <v>35124.9875020399</v>
+        <v>28012.26378424904</v>
       </c>
       <c r="S2">
-        <v>0.8631194124664087</v>
+        <v>0.7983115222126994</v>
       </c>
       <c r="T2">
-        <v>0.8631194124664088</v>
+        <v>0.7983115222126993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.7677283333333</v>
+        <v>97.95083099999999</v>
       </c>
       <c r="H3">
-        <v>425.303185</v>
+        <v>293.852493</v>
       </c>
       <c r="I3">
-        <v>0.8852651338396584</v>
+        <v>0.8624879970338062</v>
       </c>
       <c r="J3">
-        <v>0.8852651338396584</v>
+        <v>0.8624879970338061</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.19726</v>
       </c>
       <c r="O3">
-        <v>0.002328729313727272</v>
+        <v>0.001915312040072297</v>
       </c>
       <c r="P3">
-        <v>0.002328729313727272</v>
+        <v>0.001915312040072297</v>
       </c>
       <c r="Q3">
-        <v>9.321700697011112</v>
+        <v>6.44059364102</v>
       </c>
       <c r="R3">
-        <v>83.89530627309999</v>
+        <v>57.96534276917999</v>
       </c>
       <c r="S3">
-        <v>0.00206154286759311</v>
+        <v>0.001651933645136689</v>
       </c>
       <c r="T3">
-        <v>0.00206154286759311</v>
+        <v>0.001651933645136688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.7677283333333</v>
+        <v>97.95083099999999</v>
       </c>
       <c r="H4">
-        <v>425.303185</v>
+        <v>293.852493</v>
       </c>
       <c r="I4">
-        <v>0.8852651338396584</v>
+        <v>0.8624879970338062</v>
       </c>
       <c r="J4">
-        <v>0.8852651338396584</v>
+        <v>0.8624879970338061</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3180093333333333</v>
+        <v>1.659763333333333</v>
       </c>
       <c r="N4">
-        <v>0.954028</v>
+        <v>4.979290000000001</v>
       </c>
       <c r="O4">
-        <v>0.01126266333629019</v>
+        <v>0.04834682190008917</v>
       </c>
       <c r="P4">
-        <v>0.01126266333629019</v>
+        <v>0.04834682190008916</v>
       </c>
       <c r="Q4">
-        <v>45.08346077546445</v>
+        <v>162.57519776333</v>
       </c>
       <c r="R4">
-        <v>405.75114697918</v>
+        <v>1463.17677986997</v>
       </c>
       <c r="S4">
-        <v>0.009970443165791945</v>
+        <v>0.04169855358355806</v>
       </c>
       <c r="T4">
-        <v>0.009970443165791945</v>
+        <v>0.04169855358355805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.7677283333333</v>
+        <v>97.95083099999999</v>
       </c>
       <c r="H5">
-        <v>425.303185</v>
+        <v>293.852493</v>
       </c>
       <c r="I5">
-        <v>0.8852651338396584</v>
+        <v>0.8624879970338062</v>
       </c>
       <c r="J5">
-        <v>0.8852651338396584</v>
+        <v>0.8624879970338061</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01825866666666667</v>
+        <v>0.029637</v>
       </c>
       <c r="N5">
-        <v>0.054776</v>
+        <v>0.088911</v>
       </c>
       <c r="O5">
-        <v>0.0006466515101324397</v>
+        <v>0.0008632885977637027</v>
       </c>
       <c r="P5">
-        <v>0.0006466515101324397</v>
+        <v>0.0008632885977637027</v>
       </c>
       <c r="Q5">
-        <v>2.588489695728889</v>
+        <v>2.902968778347</v>
       </c>
       <c r="R5">
-        <v>23.29640726156</v>
+        <v>26.126719005123</v>
       </c>
       <c r="S5">
-        <v>0.0005724580356650115</v>
+        <v>0.0007445760535473391</v>
       </c>
       <c r="T5">
-        <v>0.0005724580356650115</v>
+        <v>0.000744576053547339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>141.7677283333333</v>
+        <v>97.95083099999999</v>
       </c>
       <c r="H6">
-        <v>425.303185</v>
+        <v>293.852493</v>
       </c>
       <c r="I6">
-        <v>0.8852651338396584</v>
+        <v>0.8624879970338062</v>
       </c>
       <c r="J6">
-        <v>0.8852651338396584</v>
+        <v>0.8624879970338061</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.304321</v>
+        <v>0.7993176666666667</v>
       </c>
       <c r="N6">
-        <v>0.912963</v>
+        <v>2.397953</v>
       </c>
       <c r="O6">
-        <v>0.01077787539515559</v>
+        <v>0.02328312000622268</v>
       </c>
       <c r="P6">
-        <v>0.01077787539515559</v>
+        <v>0.02328312000622268</v>
       </c>
       <c r="Q6">
-        <v>43.14289685412834</v>
+        <v>78.293829682981</v>
       </c>
       <c r="R6">
-        <v>388.286071687155</v>
+        <v>704.644467146829</v>
       </c>
       <c r="S6">
-        <v>0.009541277304199574</v>
+        <v>0.02008141153886474</v>
       </c>
       <c r="T6">
-        <v>0.009541277304199574</v>
+        <v>0.02008141153886473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.953495000000002</v>
+        <v>8.953495</v>
       </c>
       <c r="H7">
         <v>26.860485</v>
       </c>
       <c r="I7">
-        <v>0.05590988190818073</v>
+        <v>0.0788383507333613</v>
       </c>
       <c r="J7">
-        <v>0.05590988190818073</v>
+        <v>0.07883835073336129</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.529371</v>
+        <v>31.775879</v>
       </c>
       <c r="N7">
-        <v>82.58811300000001</v>
+        <v>95.32763700000001</v>
       </c>
       <c r="O7">
-        <v>0.9749840804446944</v>
+        <v>0.9255914574558523</v>
       </c>
       <c r="P7">
-        <v>0.9749840804446945</v>
+        <v>0.9255914574558521</v>
       </c>
       <c r="Q7">
-        <v>246.4840856016451</v>
+        <v>284.5051737471051</v>
       </c>
       <c r="R7">
-        <v>2218.356770414805</v>
+        <v>2560.546563723945</v>
       </c>
       <c r="S7">
-        <v>0.05451124480001905</v>
+        <v>0.07297210395870754</v>
       </c>
       <c r="T7">
-        <v>0.05451124480001905</v>
+        <v>0.07297210395870753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.953495000000002</v>
+        <v>8.953495</v>
       </c>
       <c r="H8">
         <v>26.860485</v>
       </c>
       <c r="I8">
-        <v>0.05590988190818073</v>
+        <v>0.0788383507333613</v>
       </c>
       <c r="J8">
-        <v>0.05590988190818073</v>
+        <v>0.07883835073336129</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.19726</v>
       </c>
       <c r="O8">
-        <v>0.002328729313727272</v>
+        <v>0.001915312040072297</v>
       </c>
       <c r="P8">
-        <v>0.002328729313727272</v>
+        <v>0.001915312040072297</v>
       </c>
       <c r="Q8">
-        <v>0.5887221412333334</v>
+        <v>0.5887221412333333</v>
       </c>
       <c r="R8">
-        <v>5.298499271100001</v>
+        <v>5.2984992711</v>
       </c>
       <c r="S8">
-        <v>0.0001301989809266106</v>
+        <v>0.0001510000423790495</v>
       </c>
       <c r="T8">
-        <v>0.0001301989809266105</v>
+        <v>0.0001510000423790495</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.953495000000002</v>
+        <v>8.953495</v>
       </c>
       <c r="H9">
         <v>26.860485</v>
       </c>
       <c r="I9">
-        <v>0.05590988190818073</v>
+        <v>0.0788383507333613</v>
       </c>
       <c r="J9">
-        <v>0.05590988190818073</v>
+        <v>0.07883835073336129</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3180093333333333</v>
+        <v>1.659763333333333</v>
       </c>
       <c r="N9">
-        <v>0.954028</v>
+        <v>4.979290000000001</v>
       </c>
       <c r="O9">
-        <v>0.01126266333629019</v>
+        <v>0.04834682190008917</v>
       </c>
       <c r="P9">
-        <v>0.01126266333629019</v>
+        <v>0.04834682190008916</v>
       </c>
       <c r="Q9">
-        <v>2.847294975953334</v>
+        <v>14.86068270618333</v>
       </c>
       <c r="R9">
-        <v>25.62565478358</v>
+        <v>133.74614435565</v>
       </c>
       <c r="S9">
-        <v>0.0006296941771035811</v>
+        <v>0.003811583701802583</v>
       </c>
       <c r="T9">
-        <v>0.000629694177103581</v>
+        <v>0.003811583701802582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.953495000000002</v>
+        <v>8.953495</v>
       </c>
       <c r="H10">
         <v>26.860485</v>
       </c>
       <c r="I10">
-        <v>0.05590988190818073</v>
+        <v>0.0788383507333613</v>
       </c>
       <c r="J10">
-        <v>0.05590988190818073</v>
+        <v>0.07883835073336129</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01825866666666667</v>
+        <v>0.029637</v>
       </c>
       <c r="N10">
-        <v>0.054776</v>
+        <v>0.088911</v>
       </c>
       <c r="O10">
-        <v>0.0006466515101324397</v>
+        <v>0.0008632885977637027</v>
       </c>
       <c r="P10">
-        <v>0.0006466515101324397</v>
+        <v>0.0008632885977637027</v>
       </c>
       <c r="Q10">
-        <v>0.1634788807066667</v>
+        <v>0.265354731315</v>
       </c>
       <c r="R10">
-        <v>1.47130992636</v>
+        <v>2.388192581835</v>
       </c>
       <c r="S10">
-        <v>3.615420956725144E-05</v>
+        <v>6.806024925460647E-05</v>
       </c>
       <c r="T10">
-        <v>3.615420956725144E-05</v>
+        <v>6.806024925460645E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.953495000000002</v>
+        <v>8.953495</v>
       </c>
       <c r="H11">
         <v>26.860485</v>
       </c>
       <c r="I11">
-        <v>0.05590988190818073</v>
+        <v>0.0788383507333613</v>
       </c>
       <c r="J11">
-        <v>0.05590988190818073</v>
+        <v>0.07883835073336129</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.304321</v>
+        <v>0.7993176666666667</v>
       </c>
       <c r="N11">
-        <v>0.912963</v>
+        <v>2.397953</v>
       </c>
       <c r="O11">
-        <v>0.01077787539515559</v>
+        <v>0.02328312000622268</v>
       </c>
       <c r="P11">
-        <v>0.01077787539515559</v>
+        <v>0.02328312000622268</v>
       </c>
       <c r="Q11">
-        <v>2.724736551895001</v>
+        <v>7.156686731911667</v>
       </c>
       <c r="R11">
-        <v>24.522628967055</v>
+        <v>64.41018058720501</v>
       </c>
       <c r="S11">
-        <v>0.0006025897405642357</v>
+        <v>0.001835602781217525</v>
       </c>
       <c r="T11">
-        <v>0.0006025897405642357</v>
+        <v>0.001835602781217524</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.669593333333333</v>
+        <v>0.6601509999999999</v>
       </c>
       <c r="H12">
-        <v>5.00878</v>
+        <v>1.980453</v>
       </c>
       <c r="I12">
-        <v>0.01042573498967191</v>
+        <v>0.005812838011857849</v>
       </c>
       <c r="J12">
-        <v>0.01042573498967191</v>
+        <v>0.005812838011857848</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.529371</v>
+        <v>31.775879</v>
       </c>
       <c r="N12">
-        <v>82.58811300000001</v>
+        <v>95.32763700000001</v>
       </c>
       <c r="O12">
-        <v>0.9749840804446944</v>
+        <v>0.9255914574558523</v>
       </c>
       <c r="P12">
-        <v>0.9749840804446945</v>
+        <v>0.9255914574558521</v>
       </c>
       <c r="Q12">
-        <v>45.96285429246</v>
+        <v>20.976878297729</v>
       </c>
       <c r="R12">
-        <v>413.66568863214</v>
+        <v>188.791904679561</v>
       </c>
       <c r="S12">
-        <v>0.01016492564186534</v>
+        <v>0.005380313207350285</v>
       </c>
       <c r="T12">
-        <v>0.01016492564186534</v>
+        <v>0.005380313207350283</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.669593333333333</v>
+        <v>0.6601509999999999</v>
       </c>
       <c r="H13">
-        <v>5.00878</v>
+        <v>1.980453</v>
       </c>
       <c r="I13">
-        <v>0.01042573498967191</v>
+        <v>0.005812838011857849</v>
       </c>
       <c r="J13">
-        <v>0.01042573498967191</v>
+        <v>0.005812838011857848</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.19726</v>
       </c>
       <c r="O13">
-        <v>0.002328729313727272</v>
+        <v>0.001915312040072297</v>
       </c>
       <c r="P13">
-        <v>0.002328729313727272</v>
+        <v>0.001915312040072297</v>
       </c>
       <c r="Q13">
-        <v>0.1097813269777778</v>
+        <v>0.04340712875333333</v>
       </c>
       <c r="R13">
-        <v>0.9880319428</v>
+        <v>0.3906641587799999</v>
       </c>
       <c r="S13">
-        <v>2.427871468760107E-05</v>
+        <v>1.113339863110125E-05</v>
       </c>
       <c r="T13">
-        <v>2.427871468760107E-05</v>
+        <v>1.113339863110125E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.669593333333333</v>
+        <v>0.6601509999999999</v>
       </c>
       <c r="H14">
-        <v>5.00878</v>
+        <v>1.980453</v>
       </c>
       <c r="I14">
-        <v>0.01042573498967191</v>
+        <v>0.005812838011857849</v>
       </c>
       <c r="J14">
-        <v>0.01042573498967191</v>
+        <v>0.005812838011857848</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3180093333333333</v>
+        <v>1.659763333333333</v>
       </c>
       <c r="N14">
-        <v>0.954028</v>
+        <v>4.979290000000001</v>
       </c>
       <c r="O14">
-        <v>0.01126266333629019</v>
+        <v>0.04834682190008917</v>
       </c>
       <c r="P14">
-        <v>0.01126266333629019</v>
+        <v>0.04834682190008916</v>
       </c>
       <c r="Q14">
-        <v>0.530946262871111</v>
+        <v>1.095694424263333</v>
       </c>
       <c r="R14">
-        <v>4.77851636584</v>
+        <v>9.86124981837</v>
       </c>
       <c r="S14">
-        <v>0.0001174215432220555</v>
+        <v>0.0002810322440933598</v>
       </c>
       <c r="T14">
-        <v>0.0001174215432220555</v>
+        <v>0.0002810322440933597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.669593333333333</v>
+        <v>0.6601509999999999</v>
       </c>
       <c r="H15">
-        <v>5.00878</v>
+        <v>1.980453</v>
       </c>
       <c r="I15">
-        <v>0.01042573498967191</v>
+        <v>0.005812838011857849</v>
       </c>
       <c r="J15">
-        <v>0.01042573498967191</v>
+        <v>0.005812838011857848</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.01825866666666667</v>
+        <v>0.029637</v>
       </c>
       <c r="N15">
-        <v>0.054776</v>
+        <v>0.088911</v>
       </c>
       <c r="O15">
-        <v>0.0006466515101324397</v>
+        <v>0.0008632885977637027</v>
       </c>
       <c r="P15">
-        <v>0.0006466515101324397</v>
+        <v>0.0008632885977637027</v>
       </c>
       <c r="Q15">
-        <v>0.03048454814222222</v>
+        <v>0.019564895187</v>
       </c>
       <c r="R15">
-        <v>0.27436093328</v>
+        <v>0.176084056683</v>
       </c>
       <c r="S15">
-        <v>6.741817275311954E-06</v>
+        <v>5.018156776284312E-06</v>
       </c>
       <c r="T15">
-        <v>6.741817275311954E-06</v>
+        <v>5.018156776284311E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.669593333333333</v>
+        <v>0.6601509999999999</v>
       </c>
       <c r="H16">
-        <v>5.00878</v>
+        <v>1.980453</v>
       </c>
       <c r="I16">
-        <v>0.01042573498967191</v>
+        <v>0.005812838011857849</v>
       </c>
       <c r="J16">
-        <v>0.01042573498967191</v>
+        <v>0.005812838011857848</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.304321</v>
+        <v>0.7993176666666667</v>
       </c>
       <c r="N16">
-        <v>0.912963</v>
+        <v>2.397953</v>
       </c>
       <c r="O16">
-        <v>0.01077787539515559</v>
+        <v>0.02328312000622268</v>
       </c>
       <c r="P16">
-        <v>0.01077787539515559</v>
+        <v>0.02328312000622268</v>
       </c>
       <c r="Q16">
-        <v>0.5080923127933333</v>
+        <v>0.5276703569676666</v>
       </c>
       <c r="R16">
-        <v>4.57283081514</v>
+        <v>4.749033212709</v>
       </c>
       <c r="S16">
-        <v>0.0001123672726215976</v>
+        <v>0.0001353410050068191</v>
       </c>
       <c r="T16">
-        <v>0.0001123672726215976</v>
+        <v>0.0001353410050068191</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.410879</v>
+        <v>4.383038333333332</v>
       </c>
       <c r="H17">
-        <v>19.232637</v>
+        <v>13.149115</v>
       </c>
       <c r="I17">
-        <v>0.04003257809577553</v>
+        <v>0.03859403656349845</v>
       </c>
       <c r="J17">
-        <v>0.04003257809577553</v>
+        <v>0.03859403656349845</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.529371</v>
+        <v>31.775879</v>
       </c>
       <c r="N17">
-        <v>82.58811300000001</v>
+        <v>95.32763700000001</v>
       </c>
       <c r="O17">
-        <v>0.9749840804446944</v>
+        <v>0.9255914574558523</v>
       </c>
       <c r="P17">
-        <v>0.9749840804446945</v>
+        <v>0.9255914574558521</v>
       </c>
       <c r="Q17">
-        <v>176.487466427109</v>
+        <v>139.2748957323616</v>
       </c>
       <c r="R17">
-        <v>1588.387197843981</v>
+        <v>1253.474061591255</v>
       </c>
       <c r="S17">
-        <v>0.03903112634254012</v>
+        <v>0.03572231055191299</v>
       </c>
       <c r="T17">
-        <v>0.03903112634254012</v>
+        <v>0.03572231055191298</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.410879</v>
+        <v>4.383038333333332</v>
       </c>
       <c r="H18">
-        <v>19.232637</v>
+        <v>13.149115</v>
       </c>
       <c r="I18">
-        <v>0.04003257809577553</v>
+        <v>0.03859403656349845</v>
       </c>
       <c r="J18">
-        <v>0.04003257809577553</v>
+        <v>0.03859403656349845</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.19726</v>
       </c>
       <c r="O18">
-        <v>0.002328729313727272</v>
+        <v>0.001915312040072297</v>
       </c>
       <c r="P18">
-        <v>0.002328729313727272</v>
+        <v>0.001915312040072297</v>
       </c>
       <c r="Q18">
-        <v>0.4215366638466667</v>
+        <v>0.2881993805444444</v>
       </c>
       <c r="R18">
-        <v>3.79382997462</v>
+        <v>2.5937944249</v>
       </c>
       <c r="S18">
-        <v>9.322503811570879E-05</v>
+        <v>7.391962290505904E-05</v>
       </c>
       <c r="T18">
-        <v>9.322503811570878E-05</v>
+        <v>7.391962290505904E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.410879</v>
+        <v>4.383038333333332</v>
       </c>
       <c r="H19">
-        <v>19.232637</v>
+        <v>13.149115</v>
       </c>
       <c r="I19">
-        <v>0.04003257809577553</v>
+        <v>0.03859403656349845</v>
       </c>
       <c r="J19">
-        <v>0.04003257809577553</v>
+        <v>0.03859403656349845</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3180093333333333</v>
+        <v>1.659763333333333</v>
       </c>
       <c r="N19">
-        <v>0.954028</v>
+        <v>4.979290000000001</v>
       </c>
       <c r="O19">
-        <v>0.01126266333629019</v>
+        <v>0.04834682190008917</v>
       </c>
       <c r="P19">
-        <v>0.01126266333629019</v>
+        <v>0.04834682190008916</v>
       </c>
       <c r="Q19">
-        <v>2.038719356870667</v>
+        <v>7.27480631426111</v>
       </c>
       <c r="R19">
-        <v>18.348474211836</v>
+        <v>65.47325682835</v>
       </c>
       <c r="S19">
-        <v>0.0004508734495764647</v>
+        <v>0.001865899012140989</v>
       </c>
       <c r="T19">
-        <v>0.0004508734495764646</v>
+        <v>0.001865899012140989</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.410879</v>
+        <v>4.383038333333332</v>
       </c>
       <c r="H20">
-        <v>19.232637</v>
+        <v>13.149115</v>
       </c>
       <c r="I20">
-        <v>0.04003257809577553</v>
+        <v>0.03859403656349845</v>
       </c>
       <c r="J20">
-        <v>0.04003257809577553</v>
+        <v>0.03859403656349845</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.01825866666666667</v>
+        <v>0.029637</v>
       </c>
       <c r="N20">
-        <v>0.054776</v>
+        <v>0.088911</v>
       </c>
       <c r="O20">
-        <v>0.0006466515101324397</v>
+        <v>0.0008632885977637027</v>
       </c>
       <c r="P20">
-        <v>0.0006466515101324397</v>
+        <v>0.0008632885977637027</v>
       </c>
       <c r="Q20">
-        <v>0.1170541027013333</v>
+        <v>0.129900107085</v>
       </c>
       <c r="R20">
-        <v>1.053486924312</v>
+        <v>1.169100963765</v>
       </c>
       <c r="S20">
-        <v>2.588712708012808E-05</v>
+        <v>3.331779170694366E-05</v>
       </c>
       <c r="T20">
-        <v>2.588712708012807E-05</v>
+        <v>3.331779170694366E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.410879</v>
+        <v>4.383038333333332</v>
       </c>
       <c r="H21">
-        <v>19.232637</v>
+        <v>13.149115</v>
       </c>
       <c r="I21">
-        <v>0.04003257809577553</v>
+        <v>0.03859403656349845</v>
       </c>
       <c r="J21">
-        <v>0.04003257809577553</v>
+        <v>0.03859403656349845</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.304321</v>
+        <v>0.7993176666666667</v>
       </c>
       <c r="N21">
-        <v>0.912963</v>
+        <v>2.397953</v>
       </c>
       <c r="O21">
-        <v>0.01077787539515559</v>
+        <v>0.02328312000622268</v>
       </c>
       <c r="P21">
-        <v>0.01077787539515559</v>
+        <v>0.02328312000622268</v>
       </c>
       <c r="Q21">
-        <v>1.950965108159</v>
+        <v>3.503439973510555</v>
       </c>
       <c r="R21">
-        <v>17.558685973431</v>
+        <v>31.530959761595</v>
       </c>
       <c r="S21">
-        <v>0.0004314661384631037</v>
+        <v>0.0008985895848324803</v>
       </c>
       <c r="T21">
-        <v>0.0004314661384631036</v>
+        <v>0.0008985895848324803</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.339851666666666</v>
+        <v>1.620246</v>
       </c>
       <c r="H22">
-        <v>4.019555</v>
+        <v>4.860738</v>
       </c>
       <c r="I22">
-        <v>0.008366671166713384</v>
+        <v>0.01426677765747629</v>
       </c>
       <c r="J22">
-        <v>0.008366671166713384</v>
+        <v>0.01426677765747629</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.529371</v>
+        <v>31.775879</v>
       </c>
       <c r="N22">
-        <v>82.58811300000001</v>
+        <v>95.32763700000001</v>
       </c>
       <c r="O22">
-        <v>0.9749840804446944</v>
+        <v>0.9255914574558523</v>
       </c>
       <c r="P22">
-        <v>0.9749840804446945</v>
+        <v>0.9255914574558521</v>
       </c>
       <c r="Q22">
-        <v>36.885273616635</v>
+        <v>51.484740846234</v>
       </c>
       <c r="R22">
-        <v>331.967462549715</v>
+        <v>463.362667616106</v>
       </c>
       <c r="S22">
-        <v>0.008157371193861188</v>
+        <v>0.01320520752518207</v>
       </c>
       <c r="T22">
-        <v>0.008157371193861188</v>
+        <v>0.01320520752518207</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.339851666666666</v>
+        <v>1.620246</v>
       </c>
       <c r="H23">
-        <v>4.019555</v>
+        <v>4.860738</v>
       </c>
       <c r="I23">
-        <v>0.008366671166713384</v>
+        <v>0.01426677765747629</v>
       </c>
       <c r="J23">
-        <v>0.008366671166713384</v>
+        <v>0.01426677765747629</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.19726</v>
       </c>
       <c r="O23">
-        <v>0.002328729313727272</v>
+        <v>0.001915312040072297</v>
       </c>
       <c r="P23">
-        <v>0.002328729313727272</v>
+        <v>0.001915312040072297</v>
       </c>
       <c r="Q23">
-        <v>0.08809971325555553</v>
+        <v>0.10653657532</v>
       </c>
       <c r="R23">
-        <v>0.7928974192999999</v>
+        <v>0.9588291778799999</v>
       </c>
       <c r="S23">
-        <v>1.948371240424222E-05</v>
+        <v>2.732533102039878E-05</v>
       </c>
       <c r="T23">
-        <v>1.948371240424222E-05</v>
+        <v>2.732533102039878E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.339851666666666</v>
+        <v>1.620246</v>
       </c>
       <c r="H24">
-        <v>4.019555</v>
+        <v>4.860738</v>
       </c>
       <c r="I24">
-        <v>0.008366671166713384</v>
+        <v>0.01426677765747629</v>
       </c>
       <c r="J24">
-        <v>0.008366671166713384</v>
+        <v>0.01426677765747629</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3180093333333333</v>
+        <v>1.659763333333333</v>
       </c>
       <c r="N24">
-        <v>0.954028</v>
+        <v>4.979290000000001</v>
       </c>
       <c r="O24">
-        <v>0.01126266333629019</v>
+        <v>0.04834682190008917</v>
       </c>
       <c r="P24">
-        <v>0.01126266333629019</v>
+        <v>0.04834682190008916</v>
       </c>
       <c r="Q24">
-        <v>0.4260853352822221</v>
+        <v>2.68922490178</v>
       </c>
       <c r="R24">
-        <v>3.83476801754</v>
+        <v>24.20302411602</v>
       </c>
       <c r="S24">
-        <v>9.423100059613906E-05</v>
+        <v>0.0006897533584941776</v>
       </c>
       <c r="T24">
-        <v>9.423100059613906E-05</v>
+        <v>0.0006897533584941776</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.339851666666666</v>
+        <v>1.620246</v>
       </c>
       <c r="H25">
-        <v>4.019555</v>
+        <v>4.860738</v>
       </c>
       <c r="I25">
-        <v>0.008366671166713384</v>
+        <v>0.01426677765747629</v>
       </c>
       <c r="J25">
-        <v>0.008366671166713384</v>
+        <v>0.01426677765747629</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.01825866666666667</v>
+        <v>0.029637</v>
       </c>
       <c r="N25">
-        <v>0.054776</v>
+        <v>0.088911</v>
       </c>
       <c r="O25">
-        <v>0.0006466515101324397</v>
+        <v>0.0008632885977637027</v>
       </c>
       <c r="P25">
-        <v>0.0006466515101324397</v>
+        <v>0.0008632885977637027</v>
       </c>
       <c r="Q25">
-        <v>0.02446390496444444</v>
+        <v>0.048019230702</v>
       </c>
       <c r="R25">
-        <v>0.22017514468</v>
+        <v>0.432173076318</v>
       </c>
       <c r="S25">
-        <v>5.410320544736751E-06</v>
+        <v>1.231634647852923E-05</v>
       </c>
       <c r="T25">
-        <v>5.410320544736751E-06</v>
+        <v>1.231634647852923E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.339851666666666</v>
+        <v>1.620246</v>
       </c>
       <c r="H26">
-        <v>4.019555</v>
+        <v>4.860738</v>
       </c>
       <c r="I26">
-        <v>0.008366671166713384</v>
+        <v>0.01426677765747629</v>
       </c>
       <c r="J26">
-        <v>0.008366671166713384</v>
+        <v>0.01426677765747629</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.304321</v>
+        <v>0.7993176666666667</v>
       </c>
       <c r="N26">
-        <v>0.912963</v>
+        <v>2.397953</v>
       </c>
       <c r="O26">
-        <v>0.01077787539515559</v>
+        <v>0.02328312000622268</v>
       </c>
       <c r="P26">
-        <v>0.01077787539515559</v>
+        <v>0.02328312000622268</v>
       </c>
       <c r="Q26">
-        <v>0.4077449990516666</v>
+        <v>1.295091252146</v>
       </c>
       <c r="R26">
-        <v>3.669704991464999</v>
+        <v>11.655821269314</v>
       </c>
       <c r="S26">
-        <v>9.017493930707789E-05</v>
+        <v>0.0003321750963011169</v>
       </c>
       <c r="T26">
-        <v>9.017493930707789E-05</v>
+        <v>0.0003321750963011169</v>
       </c>
     </row>
   </sheetData>
